--- a/tables/TableS5_fish_predator_stocks_all.xlsx
+++ b/tables/TableS5_fish_predator_stocks_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBEE3EE-585E-654C-9E7A-8AF06ABFF23A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B93B1-0753-4643-BCD4-DAEA249B2419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="880" windowWidth="34780" windowHeight="23420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="1540" windowWidth="48920" windowHeight="24080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS6_fish_predator_stocks_al" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="197">
   <si>
     <t>Atlantic Ocean</t>
   </si>
@@ -370,9 +370,6 @@
     <t>Atlantic herring, Atlantic mackerel</t>
   </si>
   <si>
-    <t>-------</t>
-  </si>
-  <si>
     <t>NANCHSCAL</t>
   </si>
   <si>
@@ -422,6 +419,198 @@
   </si>
   <si>
     <t>MACKNWATLSA3-4, HERR4TFA, HERR4TSP</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Albacore tuna NW Atlantic</t>
+  </si>
+  <si>
+    <t>Logan et al. 2013, Tefferet 2015</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>White marlin NW Atlantic</t>
+  </si>
+  <si>
+    <t>Logan et al. 2013</t>
+  </si>
+  <si>
+    <t>Atlantic mackerel Europe</t>
+  </si>
+  <si>
+    <t>European hake Europe</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Horse mackerel Europe</t>
+  </si>
+  <si>
+    <t>Megrim Europe</t>
+  </si>
+  <si>
+    <t>Pollock Europe</t>
+  </si>
+  <si>
+    <t>model, weight</t>
+  </si>
+  <si>
+    <t>Whiting Europe</t>
+  </si>
+  <si>
+    <t>Chilean jack mackerel Humboldt</t>
+  </si>
+  <si>
+    <t>Albacore tuna NE Pacific</t>
+  </si>
+  <si>
+    <t>count, energy, weight</t>
+  </si>
+  <si>
+    <t>Pacific bluefin tuna NE Pacific</t>
+  </si>
+  <si>
+    <t>Striped marlin NE Pacific</t>
+  </si>
+  <si>
+    <t>Atlantic cod NW Atlantic</t>
+  </si>
+  <si>
+    <t>count, weight</t>
+  </si>
+  <si>
+    <t>Bluefish NW Atlantic</t>
+  </si>
+  <si>
+    <t>Goosefish NW Atlantic</t>
+  </si>
+  <si>
+    <t>Pollock NW Atlantic</t>
+  </si>
+  <si>
+    <t>Silver hake NW Atlantic</t>
+  </si>
+  <si>
+    <t>White hake NW Atlantic</t>
+  </si>
+  <si>
+    <t>Bowman and Michael 1982, fishecology.org, Garrison and Link 2000, Smith and Link 2010, Bowman et al. 2000, Staudinger and Juanes 2010a, Bowman et al. 2000, fishecology.org</t>
+  </si>
+  <si>
+    <t>Arrowtooth flounder NE Pacific</t>
+  </si>
+  <si>
+    <t>Buckley et al. 1999</t>
+  </si>
+  <si>
+    <t>Black rockfish NE Pacific</t>
+  </si>
+  <si>
+    <t>Brodeur et al. 1987</t>
+  </si>
+  <si>
+    <t>Pacific chub mackerel NE Pacific</t>
+  </si>
+  <si>
+    <t>Molina et al. 1996</t>
+  </si>
+  <si>
+    <t>Shortspine thornyhead NE Pacific</t>
+  </si>
+  <si>
+    <t>Yellowtail rockfish NE Pacific</t>
+  </si>
+  <si>
+    <t>Brodeur and Percy 1984, Lee and Sampson 2008</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>Diet id</t>
+  </si>
+  <si>
+    <t># of references</t>
+  </si>
+  <si>
+    <t>Contributing composition metrics</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>fishecology.org, Smith and Link 2010, Bowman and Michael 1982, Smith and Link 2010, Bowman et al. 2000,  Staudinger and Juanes 2010a</t>
+  </si>
+  <si>
+    <t>Bowman et al. 2000, fishecology.org, Smith and Link 2010, Staudinger 2006, Staudinger and Juanes 2010a</t>
+  </si>
+  <si>
+    <t>fishecology.org, Link and Garrison 2002, Overholtz et al. 1991, Bowman et al. 2000, Staudinger and Juanes 2010a, Bowman et al. 2000</t>
+  </si>
+  <si>
+    <t>Abitia Cardenas 1992</t>
+  </si>
+  <si>
+    <t>Pinkas et al. 1971</t>
+  </si>
+  <si>
+    <t>Mackinson and Daskalov 2007</t>
+  </si>
+  <si>
+    <t>Daan 1989 (multiple tables)</t>
+  </si>
+  <si>
+    <t>Daan 1989 (multiple tables), Mackinson and Daskalov 2007</t>
+  </si>
+  <si>
+    <t>Muck and Sanchez in Pauly and Tsukayama 1987, Pauly et al 1989</t>
+  </si>
+  <si>
+    <t>Bernard et al. 1985, Glaser 2011, Pinkas et al. 1971, Glaser 2010, Glaser et al. 2015</t>
+  </si>
+  <si>
+    <t>Bowman et al. 2000, fishecology.org, Garrison and Link 2000, Nichols and Breder 1927 cited by Bowman 1984, Vinogradov 1984, Bowman and Michael 1982, Overholtz et al. 1991, Staudinger 2006, Staudinger and Juanes 2010a, Waldron 1992</t>
+  </si>
+  <si>
+    <t>Bowman et al. 2000, Buckel et al. 1999b, fishecology.org, Smith and Link 2010, Bowman et al. 2000, Sagarese et al. 2011, Staudinger 2006, Staudinger and Juanes 2010a</t>
+  </si>
+  <si>
+    <t>33-71%</t>
+  </si>
+  <si>
+    <t>0-68%%</t>
+  </si>
+  <si>
+    <t>2-32%%</t>
+  </si>
+  <si>
+    <t>4-46%%</t>
+  </si>
+  <si>
+    <t>4-81%%</t>
+  </si>
+  <si>
+    <t>22-40%%</t>
+  </si>
+  <si>
+    <t>0-33%</t>
+  </si>
+  <si>
+    <t>3-21%%</t>
+  </si>
+  <si>
+    <t>21-47%%</t>
+  </si>
+  <si>
+    <t>0-91%%</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,8 +1114,13 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1283,1189 +1477,2099 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2"/>
-      <c r="H2" s="5"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="11">
+        <v>2</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.51949999999999996</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.51949999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.54100000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="7">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.309</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.309</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.309</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.309</v>
+      </c>
+      <c r="L6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.34605000000000002</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.18990000000000001</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.60235000000000005</v>
+      </c>
+      <c r="L10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="11">
+        <v>2</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.34605000000000002</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.60235000000000005</v>
+      </c>
+      <c r="L11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.34605000000000002</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.60235000000000005</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.34605000000000002</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.60235000000000005</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="11">
+        <v>2</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.20702499999999999</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.50765000000000005</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.20702499999999999</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.50765000000000005</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.27695462399999998</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.27695462399999998</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="11">
+        <v>2</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="G17" s="7">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.53683333300000002</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="11">
+        <v>5</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="5">
-        <v>0.18990000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.309</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.309</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.57799999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.57799999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.34605000000000002</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.60235000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.34605000000000002</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.60235000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.34605000000000002</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.60235000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.34605000000000002</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.60235000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.20702499999999999</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.50765000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.20702499999999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.50765000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
+      <c r="G18" s="7">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.26597999999999999</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.55921333299999998</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="5">
-        <v>0.27695462399999998</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.27695462399999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
+      <c r="G20" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="11">
+        <v>6</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.53683333300000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="11">
+        <v>6</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.79990000000000006</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.79990000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="11">
+        <v>6</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.26597999999999999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0.55921333299999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="11">
+        <v>6</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>58</v>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="L24" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="11">
+        <v>6</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.226684211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="11">
+        <v>8</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.24675</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.24675</v>
+      </c>
+      <c r="L26" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="11">
+        <v>5</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.378</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.378</v>
+      </c>
+      <c r="L27" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" s="11">
+        <v>5</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.12783333299999999</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.23533333300000001</v>
+      </c>
+      <c r="L28" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="11">
+        <v>10</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.3095</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.3095</v>
+      </c>
+      <c r="L29" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="11">
+        <v>8</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.3095</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.3095</v>
+      </c>
+      <c r="L30" t="s">
+        <v>158</v>
+      </c>
+      <c r="M30" s="11">
+        <v>8</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="L31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="L32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="5">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0.226684211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0.24675</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="G33" s="7">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.59889999999999999</v>
+      </c>
+      <c r="L33" t="s">
+        <v>160</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0.24675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0.378</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0.12783333299999999</v>
-      </c>
-      <c r="G33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0.23533333300000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0.3095</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0.3095</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>85</v>
+      <c r="G34" s="7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="L34" t="s">
+        <v>162</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.3095</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0.3095</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="L35" t="s">
+        <v>162</v>
+      </c>
+      <c r="M35" s="11">
+        <v>1</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>87</v>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="L36" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="11">
+        <v>1</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
         <v>90</v>
       </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0.59889999999999999</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0.59889999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>91</v>
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.22463333299999999</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.22463333299999999</v>
+      </c>
+      <c r="L37" t="s">
+        <v>166</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
         <v>90</v>
       </c>
-      <c r="E38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0.59889999999999999</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0.59889999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>93</v>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.22463333299999999</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.22463333299999999</v>
+      </c>
+      <c r="L38" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
         <v>90</v>
       </c>
-      <c r="E39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0.59889999999999999</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0.59889999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="5">
-        <v>0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0.22463333299999999</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0.22463333299999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0.22463333299999999</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0.22463333299999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="7">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="H39" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="7">
         <v>0.16300000000000001</v>
       </c>
+      <c r="L39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M39" s="11">
+        <v>2</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="49" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="2:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
